--- a/example_files/xlsx/2_results_consolidation/output/general_list.xlsx
+++ b/example_files/xlsx/2_results_consolidation/output/general_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
@@ -575,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>2562</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="10">
@@ -712,14 +712,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Callithrix emiliae </t>
+          <t>Callithrix kuhlii</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -728,14 +728,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Callithrix kuhlii</t>
+          <t>Callithrix penicillata</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>42</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
@@ -744,14 +744,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Callithrix penicillata</t>
+          <t>Canis aureus</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>118</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="21">
@@ -760,14 +760,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Canis familiaris</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>2194</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22">
@@ -776,14 +776,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Canis familiaris</t>
+          <t>Canis lupus</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
@@ -792,14 +792,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>86</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="24">
@@ -808,14 +808,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canis lupus </t>
+          <t>Cavia porcellus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -824,14 +824,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Chiropotes albinasus</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>4327</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -840,14 +840,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cavia porcellus</t>
+          <t>Chrysocyon brachyurus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
@@ -856,14 +856,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chiropotes albinasus</t>
+          <t>Columba livia</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>19</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
@@ -872,14 +872,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chrysocyon brachyurus</t>
+          <t>Coryphospingus cucullatus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
@@ -888,14 +888,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Columba livia</t>
+          <t>Dasypus sabanicola</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -904,14 +904,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Coryphospingus cucullatus</t>
+          <t xml:space="preserve">Dasypus sabanicola </t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -920,14 +920,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dasypus sabanicola</t>
+          <t>Dasypus yepesi</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -936,14 +936,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dasypus sabanicola </t>
+          <t>Didelphis albiventris</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33">
@@ -952,14 +952,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dasypus yepesi</t>
+          <t>Didelphis marsupialis</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>72</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34">
@@ -968,14 +968,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Didelphis albiventris</t>
+          <t>Equus caballus</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>128</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35">
@@ -984,14 +984,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Didelphis marsupialis</t>
+          <t>Euphractus sexcinctus</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>167</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36">
@@ -1000,14 +1000,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Equus caballus</t>
+          <t>Gallus gallus</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>455</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="37">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Euphractus sexcinctus</t>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>131</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="38">
@@ -1032,14 +1032,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Gallus gallus</t>
+          <t>Hydrochoerus hydrochaeris</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1288</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="39">
@@ -1048,14 +1048,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Lama glama</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>2620</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="40">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hydrochoerus hydrochaeris</t>
+          <t>Lama guanicoe</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>2276</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="41">
@@ -1080,14 +1080,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lama glama</t>
+          <t>Lycalopex sechurae</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1654</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42">
@@ -1096,14 +1096,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Lama guanicoe</t>
+          <t>Mazama gouazoupira</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>2482</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
@@ -1112,14 +1112,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lycalopex sechurae</t>
+          <t>Myocastor coypus</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>171</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
@@ -1128,14 +1128,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mazama gouazoupira</t>
+          <t>Nasua nasua</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45">
@@ -1144,14 +1144,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Myocastor coypus</t>
+          <t>Nycticorax nycticorax</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>35</v>
+        <v>793</v>
       </c>
     </row>
     <row r="46">
@@ -1160,14 +1160,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nasua nasua</t>
+          <t>Nymphicus hollandicus</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -1176,14 +1176,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nycticorax nycticorax</t>
+          <t>Oncorhynchus clarkii</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>793</v>
+        <v>704</v>
       </c>
     </row>
     <row r="48">
@@ -1192,14 +1192,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Nymphicus hollandicus</t>
+          <t>Pecari tajacu</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>18</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49">
@@ -1208,14 +1208,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Oncorhynchus clarkii</t>
+          <t>Plecturocebus moloch</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>704</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="50">
@@ -1224,14 +1224,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pecari tajacu</t>
+          <t>Priodontes maximus</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>344</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51">
@@ -1240,14 +1240,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t>Procyon lotor</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>1677</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Priodontes maximus</t>
+          <t>Pseudalopex culpaeus</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>213</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="53">
@@ -1272,14 +1272,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Procyon lotor</t>
+          <t>Pteralopex atrata</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
@@ -1288,14 +1288,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Pudu puda</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>3058</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -1304,14 +1304,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pteralopex atrata</t>
+          <t>Puma concolor</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>21</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56">
@@ -1320,14 +1320,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Pudu puda</t>
+          <t>Rattus norvegicus</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>22</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57">
@@ -1336,14 +1336,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Rattus rattus</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>491</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58">
@@ -1352,14 +1352,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Rattus hoogerwerfi</t>
+          <t>Rattus tanezumi</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
@@ -1368,14 +1368,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rattus norvegicus</t>
+          <t>Rhea americana</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>466</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="60">
@@ -1384,14 +1384,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Rattus rattus</t>
+          <t>Saguinus midas</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
@@ -1400,14 +1400,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Rattus tanezumi</t>
+          <t>Sardinella longiceps</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62">
@@ -1416,14 +1416,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Rhea americana</t>
+          <t>Speothos venaticus</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>4415</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63">
@@ -1432,14 +1432,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Saguinus midas</t>
+          <t>Sphiggurus insidiosus</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D63" t="n">
-        <v>99</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="64">
@@ -1448,14 +1448,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sardinella longiceps</t>
+          <t xml:space="preserve">Sphiggurus insidiosus </t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>24</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65">
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Speothos venaticus</t>
+          <t>Sus scrofa</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>572</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="66">
@@ -1480,14 +1480,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sphiggurus insidiosus</t>
+          <t xml:space="preserve">Sus scrofa </t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>2495</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sphiggurus insidiosus </t>
+          <t>Sylvilagus floridanus</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>115</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68">
@@ -1512,14 +1512,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Tamandua tetradactyla</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>2813</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69">
@@ -1528,14 +1528,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sus scrofa </t>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>28</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="70">
@@ -1544,14 +1544,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Sylvilagus floridanus</t>
+          <t>Thraupis sayaca</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>271</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71">
@@ -1560,14 +1560,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tamandua tetradactyla</t>
+          <t>Trinomys dimidiatus</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>300</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72">
@@ -1576,14 +1576,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tapirus terrestris</t>
+          <t>Turdus rufiventris</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>4251</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -1592,61 +1592,13 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Thraupis sayaca</t>
+          <t>Zaedyus pichiy</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Trinomys dimidiatus</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Turdus rufiventris</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>1</v>
-      </c>
-      <c r="D75" t="n">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Zaedyus pichiy</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>2</v>
-      </c>
-      <c r="D76" t="n">
         <v>538</v>
       </c>
     </row>

--- a/example_files/xlsx/2_results_consolidation/output/general_list.xlsx
+++ b/example_files/xlsx/2_results_consolidation/output/general_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2587</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="3">
@@ -488,14 +488,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amazilia brevirostris</t>
+          <t>Amazilia sp.</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
@@ -504,14 +504,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amazilia versicolor </t>
+          <t>Ateles belzebuth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>86</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="6">
@@ -520,14 +520,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ateles belzebuth</t>
+          <t>Ateles paniscus</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1078</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7">
@@ -536,14 +536,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ateles belzebuth </t>
+          <t>Bos taurus</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="8">
@@ -552,14 +552,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ateles paniscus</t>
+          <t>Bradypus tridactylus</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>301</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9">
@@ -568,14 +568,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Bubulcus ibis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>2554</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -584,14 +584,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bos taurus </t>
+          <t>Cairina moschata</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>465</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -600,14 +600,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bradypus tridactylus</t>
+          <t>Callicebus nigrifrons</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>421</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="12">
@@ -616,14 +616,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bubulcus ibis</t>
+          <t>Callithrix penicillata</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -632,14 +632,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cairina moschata</t>
+          <t>Callithrix sp.</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14">
@@ -648,14 +648,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Callicebus cupreus</t>
+          <t>Canidae</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>1499</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15">
@@ -664,14 +664,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Callicebus donacophilus</t>
+          <t>Canis lupus familiaris</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>45</v>
+        <v>6707</v>
       </c>
     </row>
     <row r="16">
@@ -680,14 +680,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Callicebus lugens</t>
+          <t>Cavia porcellus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>197</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -696,14 +696,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Callithrix emiliae</t>
+          <t>Cervidae</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -712,14 +712,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Callithrix kuhlii</t>
+          <t>Chiroptera</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -728,14 +728,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Callithrix penicillata</t>
+          <t>Chrysocyon brachyurus</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -744,14 +744,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Canis aureus</t>
+          <t>Cingulata</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>2194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21">
@@ -760,14 +760,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Canis familiaris</t>
+          <t>Coendou insidiosus</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>116</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="22">
@@ -776,14 +776,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Columba livia</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>86</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23">
@@ -792,14 +792,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Canis lupus familiaris</t>
+          <t>Coryphospingus cucullatus</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>4311</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24">
@@ -808,14 +808,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cavia porcellus</t>
+          <t>Dasypus novemcinctus</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>37</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -824,14 +824,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chiropotes albinasus</t>
+          <t>Didelphis albiventris</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
@@ -840,14 +840,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chrysocyon brachyurus</t>
+          <t>Didelphis sp.</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>19</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27">
@@ -856,14 +856,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Columba livia</t>
+          <t>Equus caballus</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>120</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28">
@@ -872,14 +872,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Coryphospingus cucullatus</t>
+          <t>Euphractus sexcinctus</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>49</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29">
@@ -888,14 +888,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dasypus sabanicola</t>
+          <t>Gallus gallus</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>32</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="30">
@@ -904,14 +904,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dasypus sabanicola </t>
+          <t>Hydrochaeris hydrochaeris</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="31">
@@ -920,14 +920,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Dasypus yepesi</t>
+          <t>Hydrochoerus hydrochaeris</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>72</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="32">
@@ -936,14 +936,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Didelphis albiventris</t>
+          <t>Lama sp.</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>121</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="33">
@@ -952,14 +952,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Didelphis marsupialis</t>
+          <t>Lycalopex vettulus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>167</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="34">
@@ -968,14 +968,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Equus caballus</t>
+          <t>Mazama gouazoupira</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>455</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -984,14 +984,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Euphractus sexcinctus</t>
+          <t>Myocastor coypus</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>131</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
@@ -1000,14 +1000,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gallus gallus</t>
+          <t>Nasua nasua</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1288</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hydrochaeris hydrochaeris</t>
+          <t>Nycticorax nycticorax</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>2620</v>
+        <v>793</v>
       </c>
     </row>
     <row r="38">
@@ -1032,14 +1032,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Hydrochoerus hydrochaeris</t>
+          <t>Nymphicus hollandicus</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>2268</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
@@ -1048,14 +1048,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lama glama</t>
+          <t>Oncorhynchus clarkii</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1654</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Lama guanicoe</t>
+          <t>Pecari tajacu</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>2482</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41">
@@ -1080,14 +1080,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lycalopex sechurae</t>
+          <t>Pitheciidae</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>171</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="42">
@@ -1096,14 +1096,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mazama gouazoupira</t>
+          <t>Procyon cancrivorus</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -1112,14 +1112,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Myocastor coypus</t>
+          <t>Puma concolor</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>35</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44">
@@ -1128,14 +1128,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nasua nasua</t>
+          <t>Rattus norvegicus</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>44</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45">
@@ -1144,14 +1144,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nycticorax nycticorax</t>
+          <t>Rattus rattus</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>793</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46">
@@ -1160,14 +1160,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Nymphicus hollandicus</t>
+          <t>Rhea americana</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>18</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="47">
@@ -1176,14 +1176,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Oncorhynchus clarkii</t>
+          <t>Saguinus midas</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>704</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48">
@@ -1192,14 +1192,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pecari tajacu</t>
+          <t>Sardinella sp.</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>326</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49">
@@ -1208,14 +1208,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Plecturocebus moloch</t>
+          <t xml:space="preserve">Sus scrofa </t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>1677</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="50">
@@ -1224,14 +1224,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Priodontes maximus</t>
+          <t>Sylvilagus brasiliensis</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>213</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51">
@@ -1240,14 +1240,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Procyon lotor</t>
+          <t>Tamandua tetradactyla</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>48</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pseudalopex culpaeus</t>
+          <t>Tapirus terrestris</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>3058</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="53">
@@ -1272,14 +1272,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pteralopex atrata</t>
+          <t>Thraupis sayaca</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
@@ -1288,14 +1288,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Pudu puda</t>
+          <t>Trinomys sp.</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>22</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
@@ -1304,302 +1304,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Puma concolor</t>
+          <t>Turdus rufiventris</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Rattus norvegicus</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="n">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Rattus rattus</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Rattus tanezumi</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Rhea americana</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>3</v>
-      </c>
-      <c r="D59" t="n">
-        <v>4415</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Saguinus midas</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Sardinella longiceps</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Speothos venaticus</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>3</v>
-      </c>
-      <c r="D62" t="n">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Sphiggurus insidiosus</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>7</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sphiggurus insidiosus </t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Sus scrofa</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>4</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2813</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sus scrofa </t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Sylvilagus floridanus</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Tamandua tetradactyla</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>2</v>
-      </c>
-      <c r="D68" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Tapirus terrestris</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>2</v>
-      </c>
-      <c r="D69" t="n">
-        <v>4251</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Thraupis sayaca</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Trinomys dimidiatus</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Turdus rufiventris</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
         <v>141</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Zaedyus pichiy</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>2</v>
-      </c>
-      <c r="D73" t="n">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
